--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Ramp2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H2">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I2">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J2">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.66978064653</v>
+        <v>100.670223</v>
       </c>
       <c r="N2">
-        <v>100.66978064653</v>
+        <v>201.340446</v>
       </c>
       <c r="O2">
-        <v>0.5384174284654527</v>
+        <v>0.5273019182121758</v>
       </c>
       <c r="P2">
-        <v>0.5384174284654527</v>
+        <v>0.4407488795915322</v>
       </c>
       <c r="Q2">
-        <v>1243.665772884695</v>
+        <v>1253.850043550352</v>
       </c>
       <c r="R2">
-        <v>1243.665772884695</v>
+        <v>5015.400174201408</v>
       </c>
       <c r="S2">
-        <v>0.1242807722069033</v>
+        <v>0.1127259171816404</v>
       </c>
       <c r="T2">
-        <v>0.1242807722069033</v>
+        <v>0.06820435974101463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H3">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I3">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J3">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.8018046222594</v>
+        <v>16.89166466666667</v>
       </c>
       <c r="N3">
-        <v>15.8018046222594</v>
+        <v>50.674994</v>
       </c>
       <c r="O3">
-        <v>0.08451361426626565</v>
+        <v>0.08847707807829298</v>
       </c>
       <c r="P3">
-        <v>0.08451361426626565</v>
+        <v>0.1109312474097113</v>
       </c>
       <c r="Q3">
-        <v>195.2141291289541</v>
+        <v>210.3860888232854</v>
       </c>
       <c r="R3">
-        <v>195.2141291289541</v>
+        <v>1262.316532939712</v>
       </c>
       <c r="S3">
-        <v>0.01950794437123574</v>
+        <v>0.01891451449625484</v>
       </c>
       <c r="T3">
-        <v>0.01950794437123574</v>
+        <v>0.01716622561097217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H4">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I4">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J4">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>55.3901250701156</v>
+        <v>1.212819</v>
       </c>
       <c r="N4">
-        <v>55.3901250701156</v>
+        <v>3.638457</v>
       </c>
       <c r="O4">
-        <v>0.2962458893930193</v>
+        <v>0.006352640990416528</v>
       </c>
       <c r="P4">
-        <v>0.2962458893930193</v>
+        <v>0.007964846994487971</v>
       </c>
       <c r="Q4">
-        <v>684.2848197651231</v>
+        <v>15.105689752656</v>
       </c>
       <c r="R4">
-        <v>684.2848197651231</v>
+        <v>90.634138515936</v>
       </c>
       <c r="S4">
-        <v>0.06838127064686518</v>
+        <v>0.001358059315616295</v>
       </c>
       <c r="T4">
-        <v>0.06838127064686518</v>
+        <v>0.001232532434790637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +720,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H5">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I5">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J5">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.1117703180077</v>
+        <v>0.1364296666666667</v>
       </c>
       <c r="N5">
-        <v>15.1117703180077</v>
+        <v>0.409289</v>
       </c>
       <c r="O5">
-        <v>0.08082306787526231</v>
+        <v>0.0007146067902758204</v>
       </c>
       <c r="P5">
-        <v>0.08082306787526231</v>
+        <v>0.0008959633881964216</v>
       </c>
       <c r="Q5">
-        <v>186.689504948761</v>
+        <v>1.699234772645334</v>
       </c>
       <c r="R5">
-        <v>186.689504948761</v>
+        <v>10.195408635872</v>
       </c>
       <c r="S5">
-        <v>0.01865607009843121</v>
+        <v>0.0001527677087373241</v>
       </c>
       <c r="T5">
-        <v>0.01865607009843121</v>
+        <v>0.0001386472253768631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.7939710241268</v>
+        <v>12.455024</v>
       </c>
       <c r="H6">
-        <v>28.7939710241268</v>
+        <v>24.910048</v>
       </c>
       <c r="I6">
-        <v>0.537999456522777</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J6">
-        <v>0.537999456522777</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.66978064653</v>
+        <v>56.74208066666666</v>
       </c>
       <c r="N6">
-        <v>100.66978064653</v>
+        <v>170.226242</v>
       </c>
       <c r="O6">
-        <v>0.5384174284654527</v>
+        <v>0.2972101092781263</v>
       </c>
       <c r="P6">
-        <v>0.5384174284654527</v>
+        <v>0.3726376241293169</v>
       </c>
       <c r="Q6">
-        <v>2898.682746941386</v>
+        <v>706.7239765132693</v>
       </c>
       <c r="R6">
-        <v>2898.682746941386</v>
+        <v>4240.343859079616</v>
       </c>
       <c r="S6">
-        <v>0.2896682838968047</v>
+        <v>0.06353718999852243</v>
       </c>
       <c r="T6">
-        <v>0.2896682838968047</v>
+        <v>0.05766437930076411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.7939710241268</v>
+        <v>12.455024</v>
       </c>
       <c r="H7">
-        <v>28.7939710241268</v>
+        <v>24.910048</v>
       </c>
       <c r="I7">
-        <v>0.537999456522777</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J7">
-        <v>0.537999456522777</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.8018046222594</v>
+        <v>15.2624985</v>
       </c>
       <c r="N7">
-        <v>15.8018046222594</v>
+        <v>30.524997</v>
       </c>
       <c r="O7">
-        <v>0.08451361426626565</v>
+        <v>0.07994364665071274</v>
       </c>
       <c r="P7">
-        <v>0.08451361426626565</v>
+        <v>0.06682143848675533</v>
       </c>
       <c r="Q7">
-        <v>454.9967044222501</v>
+        <v>190.094785117464</v>
       </c>
       <c r="R7">
-        <v>454.9967044222501</v>
+        <v>760.3791404698561</v>
       </c>
       <c r="S7">
-        <v>0.04546827854402653</v>
+        <v>0.01709024864180454</v>
       </c>
       <c r="T7">
-        <v>0.04546827854402653</v>
+        <v>0.01034038573889616</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.7939710241268</v>
+        <v>32.753573</v>
       </c>
       <c r="H8">
-        <v>28.7939710241268</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I8">
-        <v>0.537999456522777</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J8">
-        <v>0.537999456522777</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.3901250701156</v>
+        <v>100.670223</v>
       </c>
       <c r="N8">
-        <v>55.3901250701156</v>
+        <v>201.340446</v>
       </c>
       <c r="O8">
-        <v>0.2962458893930193</v>
+        <v>0.5273019182121758</v>
       </c>
       <c r="P8">
-        <v>0.2962458893930193</v>
+        <v>0.4407488795915322</v>
       </c>
       <c r="Q8">
-        <v>1594.901656291668</v>
+        <v>3297.309497956778</v>
       </c>
       <c r="R8">
-        <v>1594.901656291668</v>
+        <v>19783.85698774067</v>
       </c>
       <c r="S8">
-        <v>0.1593801274905511</v>
+        <v>0.2964407420973906</v>
       </c>
       <c r="T8">
-        <v>0.1593801274905511</v>
+        <v>0.2690404059874453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +968,60 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.7939710241268</v>
+        <v>32.753573</v>
       </c>
       <c r="H9">
-        <v>28.7939710241268</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I9">
-        <v>0.537999456522777</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J9">
-        <v>0.537999456522777</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.1117703180077</v>
+        <v>16.89166466666667</v>
       </c>
       <c r="N9">
-        <v>15.1117703180077</v>
+        <v>50.674994</v>
       </c>
       <c r="O9">
-        <v>0.08082306787526231</v>
+        <v>0.08847707807829298</v>
       </c>
       <c r="P9">
-        <v>0.08082306787526231</v>
+        <v>0.1109312474097113</v>
       </c>
       <c r="Q9">
-        <v>435.1278766599732</v>
+        <v>553.2623717511873</v>
       </c>
       <c r="R9">
-        <v>435.1278766599732</v>
+        <v>4979.361345760685</v>
       </c>
       <c r="S9">
-        <v>0.04348276659139464</v>
+        <v>0.04974040445948887</v>
       </c>
       <c r="T9">
-        <v>0.04348276659139464</v>
+        <v>0.06771426819612467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1024,60 +1030,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.049762642593</v>
+        <v>32.753573</v>
       </c>
       <c r="H10">
-        <v>11.049762642593</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I10">
-        <v>0.2064587163555708</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J10">
-        <v>0.2064587163555708</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>100.66978064653</v>
+        <v>1.212819</v>
       </c>
       <c r="N10">
-        <v>100.66978064653</v>
+        <v>3.638457</v>
       </c>
       <c r="O10">
-        <v>0.5384174284654527</v>
+        <v>0.006352640990416528</v>
       </c>
       <c r="P10">
-        <v>0.5384174284654527</v>
+        <v>0.007964846994487971</v>
       </c>
       <c r="Q10">
-        <v>1112.377181426059</v>
+        <v>39.72415565228699</v>
       </c>
       <c r="R10">
-        <v>1112.377181426059</v>
+        <v>357.5174008705829</v>
       </c>
       <c r="S10">
-        <v>0.1111609711444447</v>
+        <v>0.003571353610588656</v>
       </c>
       <c r="T10">
-        <v>0.1111609711444447</v>
+        <v>0.00486187434216701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1092,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.049762642593</v>
+        <v>32.753573</v>
       </c>
       <c r="H11">
-        <v>11.049762642593</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I11">
-        <v>0.2064587163555708</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J11">
-        <v>0.2064587163555708</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>15.8018046222594</v>
+        <v>0.1364296666666667</v>
       </c>
       <c r="N11">
-        <v>15.8018046222594</v>
+        <v>0.409289</v>
       </c>
       <c r="O11">
-        <v>0.08451361426626565</v>
+        <v>0.0007146067902758204</v>
       </c>
       <c r="P11">
-        <v>0.08451361426626565</v>
+        <v>0.0008959633881964216</v>
       </c>
       <c r="Q11">
-        <v>174.6061904005953</v>
+        <v>4.468559046532333</v>
       </c>
       <c r="R11">
-        <v>174.6061904005953</v>
+        <v>40.217031418791</v>
       </c>
       <c r="S11">
-        <v>0.01744857231598306</v>
+        <v>0.0004017405586830408</v>
       </c>
       <c r="T11">
-        <v>0.01744857231598306</v>
+        <v>0.0005469108711828101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1157,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.049762642593</v>
+        <v>32.753573</v>
       </c>
       <c r="H12">
-        <v>11.049762642593</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I12">
-        <v>0.2064587163555708</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J12">
-        <v>0.2064587163555708</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.3901250701156</v>
+        <v>56.74208066666666</v>
       </c>
       <c r="N12">
-        <v>55.3901250701156</v>
+        <v>170.226242</v>
       </c>
       <c r="O12">
-        <v>0.2962458893930193</v>
+        <v>0.2972101092781263</v>
       </c>
       <c r="P12">
-        <v>0.2962458893930193</v>
+        <v>0.3726376241293169</v>
       </c>
       <c r="Q12">
-        <v>612.0477347683174</v>
+        <v>1858.505881287555</v>
       </c>
       <c r="R12">
-        <v>612.0477347683174</v>
+        <v>16726.55293158799</v>
       </c>
       <c r="S12">
-        <v>0.06116254604969717</v>
+        <v>0.1670867909071451</v>
       </c>
       <c r="T12">
-        <v>0.06116254604969717</v>
+        <v>0.2274641691088591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,57 +1219,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.049762642593</v>
+        <v>32.753573</v>
       </c>
       <c r="H13">
-        <v>11.049762642593</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I13">
-        <v>0.2064587163555708</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J13">
-        <v>0.2064587163555708</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.1117703180077</v>
+        <v>15.2624985</v>
       </c>
       <c r="N13">
-        <v>15.1117703180077</v>
+        <v>30.524997</v>
       </c>
       <c r="O13">
-        <v>0.08082306787526231</v>
+        <v>0.07994364665071274</v>
       </c>
       <c r="P13">
-        <v>0.08082306787526231</v>
+        <v>0.06682143848675533</v>
       </c>
       <c r="Q13">
-        <v>166.9814751233672</v>
+        <v>499.9013587821404</v>
       </c>
       <c r="R13">
-        <v>166.9814751233672</v>
+        <v>2999.408152692843</v>
       </c>
       <c r="S13">
-        <v>0.01668662684544582</v>
+        <v>0.04494304519023774</v>
       </c>
       <c r="T13">
-        <v>0.01668662684544582</v>
+        <v>0.04078891126349025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1275,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.32279903033454</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H14">
-        <v>1.32279903033454</v>
+        <v>35.091179</v>
       </c>
       <c r="I14">
-        <v>0.02471576979821667</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J14">
-        <v>0.02471576979821667</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>100.66978064653</v>
+        <v>100.670223</v>
       </c>
       <c r="N14">
-        <v>100.66978064653</v>
+        <v>201.340446</v>
       </c>
       <c r="O14">
-        <v>0.5384174284654527</v>
+        <v>0.5273019182121758</v>
       </c>
       <c r="P14">
-        <v>0.5384174284654527</v>
+        <v>0.4407488795915322</v>
       </c>
       <c r="Q14">
-        <v>133.1658882232207</v>
+        <v>1177.545605087639</v>
       </c>
       <c r="R14">
-        <v>133.1658882232207</v>
+        <v>7065.273630525833</v>
       </c>
       <c r="S14">
-        <v>0.01330740121729992</v>
+        <v>0.105865856160002</v>
       </c>
       <c r="T14">
-        <v>0.01330740121729992</v>
+        <v>0.0960805613964428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1337,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.32279903033454</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H15">
-        <v>1.32279903033454</v>
+        <v>35.091179</v>
       </c>
       <c r="I15">
-        <v>0.02471576979821667</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J15">
-        <v>0.02471576979821667</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.8018046222594</v>
+        <v>16.89166466666667</v>
       </c>
       <c r="N15">
-        <v>15.8018046222594</v>
+        <v>50.674994</v>
       </c>
       <c r="O15">
-        <v>0.08451361426626565</v>
+        <v>0.08847707807829298</v>
       </c>
       <c r="P15">
-        <v>0.08451361426626565</v>
+        <v>0.1109312474097113</v>
       </c>
       <c r="Q15">
-        <v>20.90261183186059</v>
+        <v>197.5828094753251</v>
       </c>
       <c r="R15">
-        <v>20.90261183186059</v>
+        <v>1778.245285277926</v>
       </c>
       <c r="S15">
-        <v>0.002088819035020302</v>
+        <v>0.01776345068694564</v>
       </c>
       <c r="T15">
-        <v>0.002088819035020302</v>
+        <v>0.02418233379835352</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1396,117 +1402,613 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.32279903033454</v>
+        <v>11.69705966666667</v>
       </c>
       <c r="H16">
-        <v>1.32279903033454</v>
+        <v>35.091179</v>
       </c>
       <c r="I16">
-        <v>0.02471576979821667</v>
+        <v>0.2007689570311854</v>
       </c>
       <c r="J16">
-        <v>0.02471576979821667</v>
+        <v>0.2179938868715589</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>55.3901250701156</v>
+        <v>1.212819</v>
       </c>
       <c r="N16">
-        <v>55.3901250701156</v>
+        <v>3.638457</v>
       </c>
       <c r="O16">
-        <v>0.2962458893930193</v>
+        <v>0.006352640990416528</v>
       </c>
       <c r="P16">
-        <v>0.2962458893930193</v>
+        <v>0.007964846994487971</v>
       </c>
       <c r="Q16">
-        <v>73.27000373285782</v>
+        <v>14.186416207867</v>
       </c>
       <c r="R16">
-        <v>73.27000373285782</v>
+        <v>127.677745870803</v>
       </c>
       <c r="S16">
-        <v>0.007321945205905823</v>
+        <v>0.001275413106039483</v>
       </c>
       <c r="T16">
-        <v>0.007321945205905823</v>
+        <v>0.001736287954665687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H17">
+        <v>35.091179</v>
+      </c>
+      <c r="I17">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J17">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1364296666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.409289</v>
+      </c>
+      <c r="O17">
+        <v>0.0007146067902758204</v>
+      </c>
+      <c r="P17">
+        <v>0.0008959633881964216</v>
+      </c>
+      <c r="Q17">
+        <v>1.595825951303445</v>
+      </c>
+      <c r="R17">
+        <v>14.362433561731</v>
+      </c>
+      <c r="S17">
+        <v>0.0001434708599710795</v>
+      </c>
+      <c r="T17">
+        <v>0.0001953145414875493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H18">
+        <v>35.091179</v>
+      </c>
+      <c r="I18">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J18">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>56.74208066666666</v>
+      </c>
+      <c r="N18">
+        <v>170.226242</v>
+      </c>
+      <c r="O18">
+        <v>0.2972101092781263</v>
+      </c>
+      <c r="P18">
+        <v>0.3726376241293169</v>
+      </c>
+      <c r="Q18">
+        <v>663.715503168813</v>
+      </c>
+      <c r="R18">
+        <v>5973.439528519317</v>
+      </c>
+      <c r="S18">
+        <v>0.05967056365889405</v>
+      </c>
+      <c r="T18">
+        <v>0.0812327240785328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H19">
+        <v>35.091179</v>
+      </c>
+      <c r="I19">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J19">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.2624985</v>
+      </c>
+      <c r="N19">
+        <v>30.524997</v>
+      </c>
+      <c r="O19">
+        <v>0.07994364665071274</v>
+      </c>
+      <c r="P19">
+        <v>0.06682143848675533</v>
+      </c>
+      <c r="Q19">
+        <v>178.5263556169105</v>
+      </c>
+      <c r="R19">
+        <v>1071.158133701463</v>
+      </c>
+      <c r="S19">
+        <v>0.01605020255933321</v>
+      </c>
+      <c r="T19">
+        <v>0.01456666510207657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.32279903033454</v>
-      </c>
-      <c r="H17">
-        <v>1.32279903033454</v>
-      </c>
-      <c r="I17">
-        <v>0.02471576979821667</v>
-      </c>
-      <c r="J17">
-        <v>0.02471576979821667</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>15.1117703180077</v>
-      </c>
-      <c r="N17">
-        <v>15.1117703180077</v>
-      </c>
-      <c r="O17">
-        <v>0.08082306787526231</v>
-      </c>
-      <c r="P17">
-        <v>0.08082306787526231</v>
-      </c>
-      <c r="Q17">
-        <v>19.98983512329887</v>
-      </c>
-      <c r="R17">
-        <v>19.98983512329887</v>
-      </c>
-      <c r="S17">
-        <v>0.001997604339990624</v>
-      </c>
-      <c r="T17">
-        <v>0.001997604339990624</v>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.3556395</v>
+      </c>
+      <c r="H20">
+        <v>2.711279</v>
+      </c>
+      <c r="I20">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J20">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100.670223</v>
+      </c>
+      <c r="N20">
+        <v>201.340446</v>
+      </c>
+      <c r="O20">
+        <v>0.5273019182121758</v>
+      </c>
+      <c r="P20">
+        <v>0.4407488795915322</v>
+      </c>
+      <c r="Q20">
+        <v>136.4725307726085</v>
+      </c>
+      <c r="R20">
+        <v>545.890123090434</v>
+      </c>
+      <c r="S20">
+        <v>0.01226940277314281</v>
+      </c>
+      <c r="T20">
+        <v>0.007423552466629467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.3556395</v>
+      </c>
+      <c r="H21">
+        <v>2.711279</v>
+      </c>
+      <c r="I21">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J21">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.89166466666667</v>
+      </c>
+      <c r="N21">
+        <v>50.674994</v>
+      </c>
+      <c r="O21">
+        <v>0.08847707807829298</v>
+      </c>
+      <c r="P21">
+        <v>0.1109312474097113</v>
+      </c>
+      <c r="Q21">
+        <v>22.89900784288767</v>
+      </c>
+      <c r="R21">
+        <v>137.394047057326</v>
+      </c>
+      <c r="S21">
+        <v>0.002058708435603629</v>
+      </c>
+      <c r="T21">
+        <v>0.001868419804260955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.3556395</v>
+      </c>
+      <c r="H22">
+        <v>2.711279</v>
+      </c>
+      <c r="I22">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J22">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>1.212819</v>
+      </c>
+      <c r="N22">
+        <v>3.638457</v>
+      </c>
+      <c r="O22">
+        <v>0.006352640990416528</v>
+      </c>
+      <c r="P22">
+        <v>0.007964846994487971</v>
+      </c>
+      <c r="Q22">
+        <v>1.6441453427505</v>
+      </c>
+      <c r="R22">
+        <v>9.864872056503</v>
+      </c>
+      <c r="S22">
+        <v>0.0001478149581720932</v>
+      </c>
+      <c r="T22">
+        <v>0.000134152262864637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.3556395</v>
+      </c>
+      <c r="H23">
+        <v>2.711279</v>
+      </c>
+      <c r="I23">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J23">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1364296666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.409289</v>
+      </c>
+      <c r="O23">
+        <v>0.0007146067902758204</v>
+      </c>
+      <c r="P23">
+        <v>0.0008959633881964216</v>
+      </c>
+      <c r="Q23">
+        <v>0.1849494451051667</v>
+      </c>
+      <c r="R23">
+        <v>1.109696670631</v>
+      </c>
+      <c r="S23">
+        <v>1.662766288437595E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.509075014919907E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.3556395</v>
+      </c>
+      <c r="H24">
+        <v>2.711279</v>
+      </c>
+      <c r="I24">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J24">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>56.74208066666666</v>
+      </c>
+      <c r="N24">
+        <v>170.226242</v>
+      </c>
+      <c r="O24">
+        <v>0.2972101092781263</v>
+      </c>
+      <c r="P24">
+        <v>0.3726376241293169</v>
+      </c>
+      <c r="Q24">
+        <v>76.92180586391966</v>
+      </c>
+      <c r="R24">
+        <v>461.530835183518</v>
+      </c>
+      <c r="S24">
+        <v>0.006915564713564738</v>
+      </c>
+      <c r="T24">
+        <v>0.006276351641160885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.3556395</v>
+      </c>
+      <c r="H25">
+        <v>2.711279</v>
+      </c>
+      <c r="I25">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J25">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.2624985</v>
+      </c>
+      <c r="N25">
+        <v>30.524997</v>
+      </c>
+      <c r="O25">
+        <v>0.07994364665071274</v>
+      </c>
+      <c r="P25">
+        <v>0.06682143848675533</v>
+      </c>
+      <c r="Q25">
+        <v>20.69044583529075</v>
+      </c>
+      <c r="R25">
+        <v>82.76178334116301</v>
+      </c>
+      <c r="S25">
+        <v>0.001860150259337243</v>
+      </c>
+      <c r="T25">
+        <v>0.001125476382292344</v>
       </c>
     </row>
   </sheetData>
